--- a/Documentacion/burn-down-chart Sprint2.xlsx
+++ b/Documentacion/burn-down-chart Sprint2.xlsx
@@ -247,6 +247,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,15 +270,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -443,7 +443,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -481,8 +481,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="109652992"/>
-        <c:axId val="46543232"/>
+        <c:axId val="51315840"/>
+        <c:axId val="61016320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -729,25 +729,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,11 +769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109652992"/>
-        <c:axId val="46543232"/>
+        <c:axId val="51315840"/>
+        <c:axId val="61016320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109652992"/>
+        <c:axId val="51315840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +813,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46543232"/>
+        <c:crossAx val="61016320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -821,7 +821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46543232"/>
+        <c:axId val="61016320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +869,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109652992"/>
+        <c:crossAx val="51315840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1471,7 +1471,7 @@
         <xdr:cNvPr id="1040" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9C116ED-1582-420A-878B-75A53859C1DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C116ED-1582-420A-878B-75A53859C1DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,15 +1808,15 @@
         <v>10</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E12" s="13">
         <f>+COUNTIF('PBI task'!$E$4:$E$29,'Burndown Chart'!B12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
         <f>$F$6-SUM($D$7:D12)</f>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="G12" s="13">
         <f>IF(E12="",NA(),$G$6-SUM($E$7:E12))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G13" s="13">
         <f>IF(E13="",NA(),$G$6-SUM($E$7:E13))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="13">
         <f>IF(E14="",NA(),$G$6-SUM($E$7:E14))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="1"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="G15" s="13">
         <f>IF(E15="",NA(),$G$6-SUM($E$7:E15))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="G16" s="13">
         <f>IF(E16="",NA(),$G$6-SUM($E$7:E16))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="1"/>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="G17" s="13">
         <f>IF(E17="",NA(),$G$6-SUM($E$7:E17))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G18" s="13">
         <f>IF(E18="",NA(),$G$6-SUM($E$7:E18))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="1"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E19" s="2">
         <f>SUM(E7:E18)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,16 +2288,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="18">
+      <c r="D1" s="21">
         <v>43309</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -2317,7 +2317,7 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6">
@@ -2339,29 +2339,27 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6">
         <v>43326</v>
       </c>
-      <c r="E5" s="6">
-        <v>43329</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5">
-        <f t="shared" ref="F5:F23" si="0">+COUNTIF($D$4:$D$23,D5)</f>
+        <f t="shared" ref="F5:F16" si="0">+COUNTIF($D$4:$D$23,D5)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G23" si="1">+COUNTIF($E$4:$E$23,E5)</f>
-        <v>1</v>
+        <f t="shared" ref="G5:G16" si="1">+COUNTIF($E$4:$E$23,E5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="6">
@@ -2381,7 +2379,7 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6">
@@ -2403,7 +2401,7 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="6">
@@ -2425,7 +2423,7 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="6">
@@ -2447,7 +2445,7 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="6">
@@ -2469,7 +2467,7 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="6">
@@ -2491,7 +2489,7 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="6">
@@ -2513,7 +2511,7 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6">
@@ -2535,7 +2533,7 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6">
@@ -2557,7 +2555,7 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6"/>
